--- a/XPeng_Valuation_Monitor_v2.xlsx
+++ b/XPeng_Valuation_Monitor_v2.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,45 @@
         </is>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-29T06:33:33Z</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.40000152587891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.31404656443955</v>
+      </c>
+      <c r="D3" t="n">
+        <v>425.008208559155</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>观察</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/XPeng_Valuation_Monitor_v2.xlsx
+++ b/XPeng_Valuation_Monitor_v2.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,45 @@
         </is>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-29T07:55:51Z</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.15000152587891</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.31404656443955</v>
+      </c>
+      <c r="D4" t="n">
+        <v>416.8457676605972</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>观察</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,7 +841,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.40000152587891</v>
+        <v>79.15000152587891</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
